--- a/biology/Zoologie/Jorunna_funebris/Jorunna_funebris.xlsx
+++ b/biology/Zoologie/Jorunna_funebris/Jorunna_funebris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jorunna funebris une espèce de nudibranches de la famille des Discodorididae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo/Ouest-Pacifique[1]. 
-Son habitat correspond à la zone récifale, sur les sommets ou sur les pentes jusqu'à la zone des 10 m de profondeur[1] avec une prédilection pour les zones sombres comme les surplombs et les zones sablonneuses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo/Ouest-Pacifique. 
+Son habitat correspond à la zone récifale, sur les sommets ou sur les pentes jusqu'à la zone des 10 m de profondeur avec une prédilection pour les zones sombres comme les surplombs et les zones sablonneuses.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 8 cm. 
-Le corps est ovale et d'aspect trapu. La couleur de fond du manteau est blanche et avec des taches circulaires noires à brunes ou bordeaux réparties un peu partout sur le manteau, leur taille et leur nombre variant d'un individu à l'autre. L'ensemble du manteau semble couvert de papilles mais ce sont en fait des spicules ou caryophyllidia. Le bord du manteau peut être ponctué de taches noires à brunes. Le pied est rarement visible. Les rhinophores sont lamellés et bruns à noirs quant au bouquet branchial il est translucide et surligné de noir ou de brun[2]. La ponte est blanche.
+Le corps est ovale et d'aspect trapu. La couleur de fond du manteau est blanche et avec des taches circulaires noires à brunes ou bordeaux réparties un peu partout sur le manteau, leur taille et leur nombre variant d'un individu à l'autre. L'ensemble du manteau semble couvert de papilles mais ce sont en fait des spicules ou caryophyllidia. Le bord du manteau peut être ponctué de taches noires à brunes. Le pied est rarement visible. Les rhinophores sont lamellés et bruns à noirs quant au bouquet branchial il est translucide et surligné de noir ou de brun. La ponte est blanche.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce du genre Jorunna est benthique et observable aussi bien de jour que de nuit[1].
-Jorunna funebris se nourrit principalement d'éponges bleues, comme les espèces des genres Haliclona, Xestospongia et Euplacella[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce du genre Jorunna est benthique et observable aussi bien de jour que de nuit.
+Jorunna funebris se nourrit principalement d'éponges bleues, comme les espèces des genres Haliclona, Xestospongia et Euplacella.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Jorunna funebris (Kelaart, 1858)[3].
-L'espèce Goniobranchus gleniei a été décrite pour la première fois en 1858 par le naturaliste sri-lankais Edward Frederick Kelaart (1819-1860) sous le protonyme Doris funebris[3],[4].
-Jorunna funebris a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Jorunna funebris (Kelaart, 1858).
+L'espèce Goniobranchus gleniei a été décrite pour la première fois en 1858 par le naturaliste sri-lankais Edward Frederick Kelaart (1819-1860) sous le protonyme Doris funebris,.
+Jorunna funebris a pour synonymes :
 Discodoris whitleyi J. K. Allan, 1932
 Doris funebris Kelaart, 1858
 Jorunna zania Ev. Marcus, 1976
@@ -647,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) E. F. Kelaart, « Description of New and Little known Species of Ceylon Nudibranchiate Molluscs, and Zoophytes », Journal of the Ceylon Branch of the Royal Asiatic Society, vol. 3, no 9,‎ mai 1858, p. 84-139 (OCLC 1695542, lire en ligne)</t>
         </is>
